--- a/testFiles/decisionTree.xlsx
+++ b/testFiles/decisionTree.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="6">
   <si>
     <t>跨年累计未缴费用</t>
   </si>
@@ -52,45 +44,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <b/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,18 +90,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDC0BF"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -120,98 +117,309 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA5A5A5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="14"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office 主题">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -235,82 +443,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office 主题">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office 主题">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -344,7 +492,7 @@
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -363,7 +511,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -384,16 +532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -402,23 +541,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -475,296 +612,1154 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="7" max="256" customWidth="true" style="1" width="11.0" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="39" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>50</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>0.01</v>
       </c>
-      <c r="F2" s="4">
-        <v>42.424999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="F2" s="7">
+        <f>A2*0.05+B2+C2*(1-E2)*0.15+25+A2</f>
+        <v>42.425</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="8">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>50</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
+        <f>A3*0.05+B3+C3*(1-E3)*0.15+25+A3</f>
         <v>53.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="8">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>39.774999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="E4" s="7">
+        <v>0.015</v>
+      </c>
+      <c r="F4" s="7">
+        <f>A4*0.05+B4+C4*(1-E4)*0.15+25+A4</f>
+        <v>39.775</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>100</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="F5" s="7">
+        <f>A5*0.05+B5+C5*(1-E5)*0.15+25+A5</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="8">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>150</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>0.02</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
+        <f>A6*0.05+B6+C6*(1-E6)*0.15+25+A6</f>
         <v>62.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="8">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>150</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="F7" s="7">
+        <f>A7*0.05+B7+C7*(1-E7)*0.15+25+A7</f>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="8">
         <v>30</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>300</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>3</v>
       </c>
-      <c r="E8" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>140.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
+      <c r="E8" s="7">
+        <v>0.025</v>
+      </c>
+      <c r="F8" s="7">
+        <f>A8*0.05+B8+C8*(1-E8)*0.15+25+A8</f>
+        <v>120.375</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="8">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>300</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="F9" s="7">
+        <f>A9*0.05+B9+C9*(1-E9)*0.15+25+A9</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>400</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>0.03</v>
       </c>
-      <c r="F10" s="4">
-        <v>129.69999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
+      <c r="F10" s="7">
+        <f>A10*0.05+B10+C10*(1-E10)*0.15+25+A10</f>
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>400</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>7</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
+        <f>A11*0.05+B11+C11*(1-E11)*0.15+25+A11</f>
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="6" max="256" customWidth="true" style="10" width="11.0" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -801,10 +1796,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70.0</v>
+        <v>55.0</v>
       </c>
       <c r="B4" t="n">
-        <v>70.0</v>
+        <v>55.0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -823,10 +1818,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75.5</v>
+        <v>61.5</v>
       </c>
       <c r="B6" t="n">
-        <v>75.5</v>
+        <v>61.5</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -834,10 +1829,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>140.375</v>
+        <v>120.375</v>
       </c>
       <c r="B7" t="n">
-        <v>140.375</v>
+        <v>120.375</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -845,10 +1840,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110.0</v>
+        <v>90.0</v>
       </c>
       <c r="B8" t="n">
-        <v>110.0</v>
+        <v>90.0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -856,10 +1851,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>129.7</v>
+        <v>111.7</v>
       </c>
       <c r="B9" t="n">
-        <v>129.7</v>
+        <v>111.69999999999999</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -877,12 +1872,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>